--- a/loaded_influencer_data/thuytien_x/thuytien_x_video.xlsx
+++ b/loaded_influencer_data/thuytien_x/thuytien_x_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,10 +515,10 @@
         <v>1800000</v>
       </c>
       <c r="C2" t="n">
-        <v>193700</v>
+        <v>194300</v>
       </c>
       <c r="D2" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,20 +528,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>주스+스킨케어 사용으로 피부 장벽 강화&gt;&gt;&gt; #skintok #acneproneskin #clearskintips #kbeauty</t>
+          <t>Juices + using skincare strengthening your skin barrier &gt;&gt;&gt;
+#skintok #acneproneskin #clearskintips #kbeauty</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.77561111111111</v>
+        <v>10.80905555555555</v>
       </c>
       <c r="I2" t="n">
-        <v>10.76111111111111</v>
+        <v>10.79444444444444</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0145</v>
+        <v>0.01461111111111111</v>
       </c>
       <c r="L2" t="n">
         <v>1.277777777777778</v>
@@ -570,21 +571,22 @@
         <v>1200000</v>
       </c>
       <c r="D3" t="n">
-        <v>2814</v>
+        <v>2807</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>152000</v>
+        <v>152100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>한국에서 2주 동안 그에게 무슨 짓을 했는지😭 더 이상 자랑스러울 수가 없어요!!! #skincare #skincareroutine</t>
+          <t>What two weeks in Korea did to him 😭 Couldn’t be more proud!!!
+#skincare #skincareroutine #koreanskincare</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15.22549367088608</v>
+        <v>15.22540506329114</v>
       </c>
       <c r="I3" t="n">
         <v>15.18987341772152</v>
@@ -593,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03562025316455696</v>
+        <v>0.03553164556962025</v>
       </c>
       <c r="L3" t="n">
-        <v>1.924050632911392</v>
+        <v>1.925316455696203</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -619,36 +621,38 @@
         <v>3000000</v>
       </c>
       <c r="C4" t="n">
-        <v>225300</v>
+        <v>225700</v>
       </c>
       <c r="D4" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>시작도 하지마😂 IB: @Kailin #oilyskin #sensitiveskin #acneproneskin #acneprone #skincare</t>
+          <t>Don’t even get me started 😂
+IB: @Kailin
+#oilyskin #sensitiveskin #acneproneskin #acneprone</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.545433333333333</v>
+        <v>7.558833333333332</v>
       </c>
       <c r="I4" t="n">
-        <v>7.51</v>
+        <v>7.523333333333333</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03543333333333334</v>
+        <v>0.0355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6433333333333333</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,164 +668,172 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thuytien_x/video/7486159407760330006</t>
+          <t>https://www.tiktok.com/@thuytien_x/video/7489836028665007382</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2985</v>
+        <v>1566</v>
       </c>
       <c r="C5" t="n">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>시작도 하지마😂 IB: @Kailin #oilyskin #sensitiveskin #acneproneskin #acneprone #skincare</t>
+          <t>literal botox in a bottle
+products mentioned:
+@celimax.global vita-a retinal tightening booster
+#skintok #kbeauty</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.527638190954774</v>
+        <v>6.130268199233716</v>
       </c>
       <c r="I5" t="n">
-        <v>5.460636515912897</v>
+        <v>6.066411238825032</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06700167504187605</v>
+        <v>0.06385696040868455</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2345058626465662</v>
+        <v>0.8301404853128991</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thuytien_x/video/7486156644611525910</t>
+          <t>https://www.tiktok.com/@thuytien_x/video/7489115533044927766</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13500</v>
+        <v>3829</v>
       </c>
       <c r="C6" t="n">
-        <v>875</v>
+        <v>234</v>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>8</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>85</v>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>기능: 내 아침 음료 #skintok #acne #clearskin</t>
+          <t>360 eye patches and lip treatment are my newest favs &gt;&gt;&gt;
+products mentioned:
+@ROUND LAB cleansing oil</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.540740740740741</v>
+        <v>6.189605641159571</v>
       </c>
       <c r="I6" t="n">
-        <v>6.481481481481481</v>
+        <v>6.111256202663881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05925925925925926</v>
+        <v>0.07834943849569079</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.2089318359885088</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thuytien_x/video/7485379565855067414</t>
+          <t>https://www.tiktok.com/@thuytien_x/video/7487626178442874134</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4697</v>
+        <v>6628</v>
       </c>
       <c r="C7" t="n">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>이탈리아 어딘가에서 이른 아침 기차 언급된 제품: 쿠션 쉐이드 21, 아이라이너, 롱 컬링 마스카라 블러셔 쉐이드 피기 블러셔, 관능적인 누드 글로스 립 라이너 그늘이 치솟습니다. 설정 해결사</t>
+          <t>Updated morning skincare
+Products mentioned:
+@biohealboh_official Cooling Massager
+@Eqqualberry</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.194805194805195</v>
+        <v>5.506940253470127</v>
       </c>
       <c r="I7" t="n">
-        <v>5.088354268682138</v>
+        <v>5.461677730838865</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1064509261230573</v>
+        <v>0.04526252263126131</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1277411113476687</v>
+        <v>0.4224502112251056</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thuytien_x/video/7482802867292654870</t>
+          <t>https://www.tiktok.com/@thuytien_x/video/7486159407760330006</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16500</v>
+        <v>6153</v>
       </c>
       <c r="C8" t="n">
-        <v>954</v>
+        <v>306</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
@@ -830,132 +842,288 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>장 건강과 k-뷰티&gt;&gt;&gt; #skintok #acne #clearskin #kbeauty #guthealth</t>
+          <t>Something about using mini skincare products &gt;&gt;&gt;
+#skintok #clearskin #acne #kbeauty</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.848484848484849</v>
+        <v>5.151958394279213</v>
       </c>
       <c r="I8" t="n">
-        <v>5.781818181818181</v>
+        <v>4.973183812774256</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1787745815049569</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.3250446936453762</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thuytien_x/video/7480578002980474134</t>
+          <t>https://www.tiktok.com/@thuytien_x/video/7486156644611525910</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19400</v>
+        <v>23800</v>
       </c>
       <c r="C9" t="n">
-        <v>1012</v>
+        <v>1648</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>더블클렌징&gt;&gt;&gt; 언급된 제품: 카로틴 클렌징 밤 센텔라 앰플 폼 클렌저 @APRILSKIN USA @SKIN1004 US #skintok</t>
+          <t>The function: my morning drinks
+#skintok #acne #clearskin</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.293814432989691</v>
+        <v>6.995798319327731</v>
       </c>
       <c r="I9" t="n">
-        <v>5.216494845360825</v>
+        <v>6.92436974789916</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07731958762886598</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2783505154639175</v>
+        <v>0.8025210084033613</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@thuytien_x/video/7485379565855067414</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>304</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>early morning train somewhere in italy
+products mentioned:
+@클리오 찐 cushion shade 21, eyeliner, long curling mascara</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.263512584238756</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.180992985834136</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0825195984046211</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2338055288130931</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thuytien_x/video/7482802867292654870</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>304</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>early morning train somewhere in italy
+products mentioned:
+@클리오 찐 cushion shade 21, eyeliner, long curling mascara</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.62303664921466</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.591623036649215</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.03141361256544502</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.08376963350785339</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thuytien_x/video/7480578002980474134</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>54</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>더블클렌징&gt;&gt;&gt; 언급된 제품: 카로틴 클렌징 밤 센텔라 앰플 폼 클렌저 @APRILSKIN USA @SKIN1004 US #skintok</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5.293814432989691</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.216494845360825</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.07731958762886598</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2783505154639175</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@thuytien_x/video/7480219860081970454</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>15400</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>528</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>45</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>피부도 쉽게 빨갛게 변한다면 이것을 시도해보세요!! 언급된 제품: 세라놀 젤 토너 패드 @Biodance #skintok #acne</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>3.428571428571429</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.2922077922077922</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
